--- a/Code/Results/Cases/Case_1_165/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_165/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01393054728287</v>
+        <v>1.041240515573738</v>
       </c>
       <c r="D2">
-        <v>1.046595944301493</v>
+        <v>1.057568763589349</v>
       </c>
       <c r="E2">
-        <v>1.029787511382456</v>
+        <v>1.050415151866332</v>
       </c>
       <c r="F2">
-        <v>1.043890222866935</v>
+        <v>1.063400875303862</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052949008158604</v>
+        <v>1.044027115974436</v>
       </c>
       <c r="J2">
-        <v>1.035702434228502</v>
+        <v>1.046322789755185</v>
       </c>
       <c r="K2">
-        <v>1.057442159924718</v>
+        <v>1.060303375646331</v>
       </c>
       <c r="L2">
-        <v>1.040846889160118</v>
+        <v>1.053169492995887</v>
       </c>
       <c r="M2">
-        <v>1.054770174131513</v>
+        <v>1.066119615497034</v>
       </c>
       <c r="N2">
-        <v>1.037173250481836</v>
+        <v>1.047808688131539</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018056554851632</v>
+        <v>1.042126483843132</v>
       </c>
       <c r="D3">
-        <v>1.049624800485895</v>
+        <v>1.058236428656855</v>
       </c>
       <c r="E3">
-        <v>1.033162826432757</v>
+        <v>1.051188941203702</v>
       </c>
       <c r="F3">
-        <v>1.047482137100514</v>
+        <v>1.064223730400519</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054101420054936</v>
+        <v>1.044226590187372</v>
       </c>
       <c r="J3">
-        <v>1.03806679710392</v>
+        <v>1.046855021992533</v>
       </c>
       <c r="K3">
-        <v>1.059659781694369</v>
+        <v>1.060785274120953</v>
       </c>
       <c r="L3">
-        <v>1.043388262766359</v>
+        <v>1.053755823764507</v>
       </c>
       <c r="M3">
-        <v>1.057541489532026</v>
+        <v>1.06675745439619</v>
       </c>
       <c r="N3">
-        <v>1.039540971023734</v>
+        <v>1.048341676199712</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020677383933142</v>
+        <v>1.042700481853017</v>
       </c>
       <c r="D4">
-        <v>1.051551468274451</v>
+        <v>1.058668931598862</v>
       </c>
       <c r="E4">
-        <v>1.035312530745778</v>
+        <v>1.051690622553879</v>
       </c>
       <c r="F4">
-        <v>1.049769403119848</v>
+        <v>1.064757172358421</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054825337797674</v>
+        <v>1.044354784745038</v>
       </c>
       <c r="J4">
-        <v>1.039566552208269</v>
+        <v>1.047199474458479</v>
       </c>
       <c r="K4">
-        <v>1.061065113213896</v>
+        <v>1.061096888984373</v>
       </c>
       <c r="L4">
-        <v>1.045002656290304</v>
+        <v>1.054135544309236</v>
       </c>
       <c r="M4">
-        <v>1.059302088319969</v>
+        <v>1.067170524239911</v>
       </c>
       <c r="N4">
-        <v>1.041042855952354</v>
+        <v>1.048686617827669</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021767833776213</v>
+        <v>1.042941960850108</v>
       </c>
       <c r="D5">
-        <v>1.052353698820928</v>
+        <v>1.058850868653857</v>
       </c>
       <c r="E5">
-        <v>1.03620829084452</v>
+        <v>1.05190176412414</v>
       </c>
       <c r="F5">
-        <v>1.050722387092641</v>
+        <v>1.064981668758725</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055124561793578</v>
+        <v>1.044408466677974</v>
       </c>
       <c r="J5">
-        <v>1.04019002789962</v>
+        <v>1.04734429603457</v>
       </c>
       <c r="K5">
-        <v>1.061648991176272</v>
+        <v>1.061227841230358</v>
       </c>
       <c r="L5">
-        <v>1.045674352676414</v>
+        <v>1.054295255314703</v>
       </c>
       <c r="M5">
-        <v>1.060034642654685</v>
+        <v>1.067344259906569</v>
       </c>
       <c r="N5">
-        <v>1.041667217050701</v>
+        <v>1.048831645067009</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021950270401218</v>
+        <v>1.042982516175691</v>
       </c>
       <c r="D6">
-        <v>1.052487948857944</v>
+        <v>1.058881423247704</v>
       </c>
       <c r="E6">
-        <v>1.036358232232873</v>
+        <v>1.051937229435925</v>
       </c>
       <c r="F6">
-        <v>1.050881901408525</v>
+        <v>1.06501937655749</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05517450595209</v>
+        <v>1.044417467713187</v>
       </c>
       <c r="J6">
-        <v>1.040294306006459</v>
+        <v>1.047368612985517</v>
       </c>
       <c r="K6">
-        <v>1.061746625594468</v>
+        <v>1.061249825678155</v>
       </c>
       <c r="L6">
-        <v>1.045786728892936</v>
+        <v>1.054322075940018</v>
       </c>
       <c r="M6">
-        <v>1.060157201936267</v>
+        <v>1.067373435599221</v>
       </c>
       <c r="N6">
-        <v>1.041771643244413</v>
+        <v>1.048855996550816</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0206919986733</v>
+        <v>1.042703707840147</v>
       </c>
       <c r="D7">
-        <v>1.051562217862357</v>
+        <v>1.05867136220973</v>
       </c>
       <c r="E7">
-        <v>1.035324530952992</v>
+        <v>1.051693442917775</v>
       </c>
       <c r="F7">
-        <v>1.049782170322902</v>
+        <v>1.064760171159903</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054829355995422</v>
+        <v>1.04435550287587</v>
       </c>
       <c r="J7">
-        <v>1.039574910456539</v>
+        <v>1.047201409518944</v>
       </c>
       <c r="K7">
-        <v>1.06107294200692</v>
+        <v>1.061098638975445</v>
       </c>
       <c r="L7">
-        <v>1.045011658757391</v>
+        <v>1.054137678076712</v>
       </c>
       <c r="M7">
-        <v>1.059311906342962</v>
+        <v>1.067172845387704</v>
       </c>
       <c r="N7">
-        <v>1.041051226070296</v>
+        <v>1.048688555636142</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015335323969291</v>
+        <v>1.041539783281158</v>
       </c>
       <c r="D8">
-        <v>1.047626564073089</v>
+        <v>1.057794303830457</v>
       </c>
       <c r="E8">
-        <v>1.030935479927865</v>
+        <v>1.050676451975146</v>
       </c>
       <c r="F8">
-        <v>1.045111937224562</v>
+        <v>1.063678754886449</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053343040817263</v>
+        <v>1.044094710703632</v>
       </c>
       <c r="J8">
-        <v>1.036507844124531</v>
+        <v>1.046502646425089</v>
       </c>
       <c r="K8">
-        <v>1.058197851158456</v>
+        <v>1.060466277233907</v>
       </c>
       <c r="L8">
-        <v>1.0417121013767</v>
+        <v>1.053367578022792</v>
       </c>
       <c r="M8">
-        <v>1.055713638013039</v>
+        <v>1.066335103660149</v>
       </c>
       <c r="N8">
-        <v>1.037979804152299</v>
+        <v>1.047988800218543</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005503263427426</v>
+        <v>1.039494359077495</v>
       </c>
       <c r="D9">
-        <v>1.040427319206294</v>
+        <v>1.056252565455346</v>
       </c>
       <c r="E9">
-        <v>1.022926663410242</v>
+        <v>1.048892028742407</v>
       </c>
       <c r="F9">
-        <v>1.03658715437231</v>
+        <v>1.061780902847433</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050552476432905</v>
+        <v>1.043628464538049</v>
       </c>
       <c r="J9">
-        <v>1.030863172859422</v>
+        <v>1.045271870662448</v>
       </c>
       <c r="K9">
-        <v>1.052896857758783</v>
+        <v>1.05935046193892</v>
       </c>
       <c r="L9">
-        <v>1.035658409018411</v>
+        <v>1.052013116743916</v>
       </c>
       <c r="M9">
-        <v>1.049113265388744</v>
+        <v>1.06486161162049</v>
       </c>
       <c r="N9">
-        <v>1.032327116806541</v>
+        <v>1.046756276613149</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9986580586887788</v>
+        <v>1.038134569439085</v>
       </c>
       <c r="D10">
-        <v>1.035435834505981</v>
+        <v>1.055227372248977</v>
       </c>
       <c r="E10">
-        <v>1.017385577381305</v>
+        <v>1.047707659118729</v>
       </c>
       <c r="F10">
-        <v>1.030687396754392</v>
+        <v>1.060520988123289</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048569784173967</v>
+        <v>1.043313174156651</v>
       </c>
       <c r="J10">
-        <v>1.026925020192596</v>
+        <v>1.044451785968354</v>
       </c>
       <c r="K10">
-        <v>1.049193460963529</v>
+        <v>1.058605651542126</v>
       </c>
       <c r="L10">
-        <v>1.031447868046709</v>
+        <v>1.051111942582984</v>
       </c>
       <c r="M10">
-        <v>1.044523837745092</v>
+        <v>1.063881204552099</v>
       </c>
       <c r="N10">
-        <v>1.028383371511215</v>
+        <v>1.045935027304724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.995618804819204</v>
+        <v>1.037546691660506</v>
       </c>
       <c r="D11">
-        <v>1.033225504397882</v>
+        <v>1.054784100050002</v>
       </c>
       <c r="E11">
-        <v>1.014934260280676</v>
+        <v>1.047196080621856</v>
       </c>
       <c r="F11">
-        <v>1.028077070319894</v>
+        <v>1.059976717246731</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0476805668816</v>
+        <v>1.043175601260808</v>
       </c>
       <c r="J11">
-        <v>1.02517498932778</v>
+        <v>1.04409679826599</v>
       </c>
       <c r="K11">
-        <v>1.047546906984016</v>
+        <v>1.058282936687332</v>
       </c>
       <c r="L11">
-        <v>1.029579928841833</v>
+        <v>1.050722168718</v>
       </c>
       <c r="M11">
-        <v>1.042488232038184</v>
+        <v>1.063457153127976</v>
       </c>
       <c r="N11">
-        <v>1.02663085540184</v>
+        <v>1.045579535479104</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9944780127296151</v>
+        <v>1.03732846739318</v>
       </c>
       <c r="D12">
-        <v>1.03239681954775</v>
+        <v>1.054619547552739</v>
       </c>
       <c r="E12">
-        <v>1.014015550316463</v>
+        <v>1.047006248909298</v>
       </c>
       <c r="F12">
-        <v>1.027098721717923</v>
+        <v>1.059774745160128</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047345507044112</v>
+        <v>1.043124343516253</v>
       </c>
       <c r="J12">
-        <v>1.024517925627961</v>
+        <v>1.043964958449153</v>
       </c>
       <c r="K12">
-        <v>1.046928598488016</v>
+        <v>1.058163036338691</v>
       </c>
       <c r="L12">
-        <v>1.028879071987262</v>
+        <v>1.050577456942695</v>
       </c>
       <c r="M12">
-        <v>1.041724538439881</v>
+        <v>1.063299713972572</v>
       </c>
       <c r="N12">
-        <v>1.025972858596201</v>
+        <v>1.045447508434606</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9947232636266368</v>
+        <v>1.037375270893108</v>
       </c>
       <c r="D13">
-        <v>1.032574927517577</v>
+        <v>1.054654840132675</v>
       </c>
       <c r="E13">
-        <v>1.014212993150291</v>
+        <v>1.047046959769335</v>
       </c>
       <c r="F13">
-        <v>1.027308983603598</v>
+        <v>1.059818060031946</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047417596695419</v>
+        <v>1.043135345571569</v>
       </c>
       <c r="J13">
-        <v>1.024659190835908</v>
+        <v>1.043993237683911</v>
       </c>
       <c r="K13">
-        <v>1.047061535367463</v>
+        <v>1.058188756690851</v>
       </c>
       <c r="L13">
-        <v>1.029029730865059</v>
+        <v>1.050608495028313</v>
       </c>
       <c r="M13">
-        <v>1.041888701527742</v>
+        <v>1.063333481902541</v>
       </c>
       <c r="N13">
-        <v>1.026114324416947</v>
+        <v>1.04547582782912</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9955247523433837</v>
+        <v>1.037528650315779</v>
       </c>
       <c r="D14">
-        <v>1.033157163369202</v>
+        <v>1.054770496068216</v>
       </c>
       <c r="E14">
-        <v>1.0148584885511</v>
+        <v>1.04718038515994</v>
       </c>
       <c r="F14">
-        <v>1.027996380696336</v>
+        <v>1.059960018194974</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047652968850208</v>
+        <v>1.043171367479181</v>
       </c>
       <c r="J14">
-        <v>1.025120821305282</v>
+        <v>1.044085899962647</v>
       </c>
       <c r="K14">
-        <v>1.047495935694071</v>
+        <v>1.058273026284402</v>
       </c>
       <c r="L14">
-        <v>1.029522140810382</v>
+        <v>1.05071020541046</v>
       </c>
       <c r="M14">
-        <v>1.042425261379578</v>
+        <v>1.063444137671495</v>
       </c>
       <c r="N14">
-        <v>1.026576610454537</v>
+        <v>1.045568621698921</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.996016984268428</v>
+        <v>1.037623170998159</v>
       </c>
       <c r="D15">
-        <v>1.033514872183057</v>
+        <v>1.054841768620663</v>
       </c>
       <c r="E15">
-        <v>1.015255103972398</v>
+        <v>1.047262618352564</v>
       </c>
       <c r="F15">
-        <v>1.028418736283293</v>
+        <v>1.060047509116625</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047797353276576</v>
+        <v>1.043193540976752</v>
       </c>
       <c r="J15">
-        <v>1.025404307131337</v>
+        <v>1.044142994728892</v>
       </c>
       <c r="K15">
-        <v>1.047762687837788</v>
+        <v>1.058324943671539</v>
       </c>
       <c r="L15">
-        <v>1.029824591249688</v>
+        <v>1.050772881532765</v>
       </c>
       <c r="M15">
-        <v>1.042754839605908</v>
+        <v>1.063512325988124</v>
       </c>
       <c r="N15">
-        <v>1.026860498862981</v>
+        <v>1.045625797546282</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9988581305964657</v>
+        <v>1.038173604462873</v>
       </c>
       <c r="D16">
-        <v>1.035581468686501</v>
+        <v>1.055256804478908</v>
       </c>
       <c r="E16">
-        <v>1.017547136693708</v>
+        <v>1.047741637629043</v>
       </c>
       <c r="F16">
-        <v>1.030859429366172</v>
+        <v>1.060557136735789</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048628138974985</v>
+        <v>1.043322282353842</v>
       </c>
       <c r="J16">
-        <v>1.02704019555819</v>
+        <v>1.044475347848494</v>
       </c>
       <c r="K16">
-        <v>1.049301811143961</v>
+        <v>1.058627064823566</v>
       </c>
       <c r="L16">
-        <v>1.031570869184351</v>
+        <v>1.051137819992064</v>
       </c>
       <c r="M16">
-        <v>1.044657889016002</v>
+        <v>1.063909357516353</v>
       </c>
       <c r="N16">
-        <v>1.02849871043904</v>
+        <v>1.045958622645436</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000619769400956</v>
+        <v>1.03851912421462</v>
       </c>
       <c r="D17">
-        <v>1.036864461821345</v>
+        <v>1.055517319056885</v>
       </c>
       <c r="E17">
-        <v>1.018970693956066</v>
+        <v>1.048042452749323</v>
       </c>
       <c r="F17">
-        <v>1.032375232830492</v>
+        <v>1.060877156896246</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049140944958042</v>
+        <v>1.043402757787668</v>
       </c>
       <c r="J17">
-        <v>1.028054151601324</v>
+        <v>1.044683855675909</v>
       </c>
       <c r="K17">
-        <v>1.050255588586545</v>
+        <v>1.058816523014474</v>
       </c>
       <c r="L17">
-        <v>1.032654077972176</v>
+        <v>1.05136685517648</v>
       </c>
       <c r="M17">
-        <v>1.045838459760344</v>
+        <v>1.064158532227359</v>
       </c>
       <c r="N17">
-        <v>1.029514106416058</v>
+        <v>1.046167426577883</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001640085062507</v>
+        <v>1.038720748717707</v>
       </c>
       <c r="D18">
-        <v>1.037608105607954</v>
+        <v>1.055669334737402</v>
       </c>
       <c r="E18">
-        <v>1.019796040654901</v>
+        <v>1.048218034701532</v>
       </c>
       <c r="F18">
-        <v>1.033254029319936</v>
+        <v>1.061063942660521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049437104848414</v>
+        <v>1.043449596380978</v>
       </c>
       <c r="J18">
-        <v>1.028641274826373</v>
+        <v>1.044805485717127</v>
       </c>
       <c r="K18">
-        <v>1.050807783636796</v>
+        <v>1.05892701070029</v>
       </c>
       <c r="L18">
-        <v>1.033281598931393</v>
+        <v>1.051500489930991</v>
       </c>
       <c r="M18">
-        <v>1.046522423495038</v>
+        <v>1.064303916986415</v>
       </c>
       <c r="N18">
-        <v>1.03010206342343</v>
+        <v>1.046289229347709</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001986778833976</v>
+        <v>1.038789512459157</v>
       </c>
       <c r="D19">
-        <v>1.037860880116396</v>
+        <v>1.055721178603491</v>
       </c>
       <c r="E19">
-        <v>1.02007662703797</v>
+        <v>1.048277924177024</v>
       </c>
       <c r="F19">
-        <v>1.033552780911701</v>
+        <v>1.061127652653287</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049537591642273</v>
+        <v>1.043465549915712</v>
       </c>
       <c r="J19">
-        <v>1.028840747984767</v>
+        <v>1.044846960238212</v>
       </c>
       <c r="K19">
-        <v>1.050995375219272</v>
+        <v>1.058964680698139</v>
       </c>
       <c r="L19">
-        <v>1.033494847389613</v>
+        <v>1.05154606307871</v>
       </c>
       <c r="M19">
-        <v>1.046754859136291</v>
+        <v>1.064353497077847</v>
       </c>
       <c r="N19">
-        <v>1.030301819856588</v>
+        <v>1.046330762767371</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000431512907469</v>
+        <v>1.038482044032202</v>
       </c>
       <c r="D20">
-        <v>1.036727297587274</v>
+        <v>1.055489361888267</v>
       </c>
       <c r="E20">
-        <v>1.01881847850176</v>
+        <v>1.048010165544929</v>
       </c>
       <c r="F20">
-        <v>1.032213157176429</v>
+        <v>1.060842808981665</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049086232057935</v>
+        <v>1.043394134014791</v>
       </c>
       <c r="J20">
-        <v>1.027945810584037</v>
+        <v>1.044661483617461</v>
       </c>
       <c r="K20">
-        <v>1.050153685956606</v>
+        <v>1.058796198009438</v>
       </c>
       <c r="L20">
-        <v>1.032538306417686</v>
+        <v>1.051342277472264</v>
       </c>
       <c r="M20">
-        <v>1.045712278175892</v>
+        <v>1.064131793434973</v>
       </c>
       <c r="N20">
-        <v>1.029405611542099</v>
+        <v>1.046145022748545</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9952890665757939</v>
+        <v>1.037483480029967</v>
       </c>
       <c r="D21">
-        <v>1.032985923729976</v>
+        <v>1.0547364355426</v>
       </c>
       <c r="E21">
-        <v>1.014668635183553</v>
+        <v>1.047141089412042</v>
       </c>
       <c r="F21">
-        <v>1.027794204370565</v>
+        <v>1.059918209673347</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047583790426336</v>
+        <v>1.043160764254671</v>
       </c>
       <c r="J21">
-        <v>1.024985079009855</v>
+        <v>1.044058612712638</v>
       </c>
       <c r="K21">
-        <v>1.047368202805902</v>
+        <v>1.058248211797431</v>
       </c>
       <c r="L21">
-        <v>1.029377334655061</v>
+        <v>1.050680252360736</v>
       </c>
       <c r="M21">
-        <v>1.042267469712383</v>
+        <v>1.063411550293315</v>
       </c>
       <c r="N21">
-        <v>1.026440675389481</v>
+        <v>1.045541295697886</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.991986773579651</v>
+        <v>1.036856452292072</v>
       </c>
       <c r="D22">
-        <v>1.0305890314225</v>
+        <v>1.054263611891123</v>
       </c>
       <c r="E22">
-        <v>1.012011927914844</v>
+        <v>1.046595774564875</v>
       </c>
       <c r="F22">
-        <v>1.024964957476802</v>
+        <v>1.059338002817485</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046611494809088</v>
+        <v>1.043013127163073</v>
       </c>
       <c r="J22">
-        <v>1.023082749249954</v>
+        <v>1.043679671042236</v>
       </c>
       <c r="K22">
-        <v>1.045577930645966</v>
+        <v>1.05790350008564</v>
       </c>
       <c r="L22">
-        <v>1.027349123703867</v>
+        <v>1.050264402668764</v>
       </c>
       <c r="M22">
-        <v>1.040057562785941</v>
+        <v>1.062959124669056</v>
       </c>
       <c r="N22">
-        <v>1.02453564410312</v>
+        <v>1.045161815886848</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.993744126480099</v>
+        <v>1.037188774372715</v>
       </c>
       <c r="D23">
-        <v>1.031863999795246</v>
+        <v>1.054514209895385</v>
       </c>
       <c r="E23">
-        <v>1.013424934077938</v>
+        <v>1.046884750670041</v>
       </c>
       <c r="F23">
-        <v>1.026469753404991</v>
+        <v>1.059645474115204</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047129601553752</v>
+        <v>1.043091478231382</v>
       </c>
       <c r="J23">
-        <v>1.024095181190445</v>
+        <v>1.043880544617215</v>
       </c>
       <c r="K23">
-        <v>1.046530765414122</v>
+        <v>1.058086254022992</v>
       </c>
       <c r="L23">
-        <v>1.028428286715543</v>
+        <v>1.050484814851065</v>
       </c>
       <c r="M23">
-        <v>1.041233358641096</v>
+        <v>1.063198923718437</v>
       </c>
       <c r="N23">
-        <v>1.025549513813094</v>
+        <v>1.045362974725344</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000516600179101</v>
+        <v>1.038498798696706</v>
       </c>
       <c r="D24">
-        <v>1.036789290716496</v>
+        <v>1.055501994338241</v>
       </c>
       <c r="E24">
-        <v>1.018887273508232</v>
+        <v>1.04802475436737</v>
       </c>
       <c r="F24">
-        <v>1.032286408681101</v>
+        <v>1.060858328944681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049110963571371</v>
+        <v>1.043398031039838</v>
       </c>
       <c r="J24">
-        <v>1.027994778493855</v>
+        <v>1.044671592553984</v>
       </c>
       <c r="K24">
-        <v>1.05019974410509</v>
+        <v>1.05880538206653</v>
       </c>
       <c r="L24">
-        <v>1.032590631855654</v>
+        <v>1.05135338294801</v>
       </c>
       <c r="M24">
-        <v>1.045769308528936</v>
+        <v>1.064143875404323</v>
       </c>
       <c r="N24">
-        <v>1.029454648991966</v>
+        <v>1.046155146040918</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008094266325396</v>
+        <v>1.040022482317837</v>
       </c>
       <c r="D25">
-        <v>1.042321232775788</v>
+        <v>1.056650685906393</v>
       </c>
       <c r="E25">
-        <v>1.025031402265965</v>
+        <v>1.049352428058283</v>
       </c>
       <c r="F25">
-        <v>1.038827802956364</v>
+        <v>1.062270613825486</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05129492446547</v>
+        <v>1.043749789547207</v>
       </c>
       <c r="J25">
-        <v>1.032352263276173</v>
+        <v>1.045589984849382</v>
       </c>
       <c r="K25">
-        <v>1.054296261229402</v>
+        <v>1.059639097616246</v>
       </c>
       <c r="L25">
-        <v>1.037253179011093</v>
+        <v>1.05236296628172</v>
       </c>
       <c r="M25">
-        <v>1.050851850457586</v>
+        <v>1.065242213001379</v>
       </c>
       <c r="N25">
-        <v>1.033818321902484</v>
+        <v>1.047074842558716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_165/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_165/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041240515573738</v>
+        <v>1.013930547282869</v>
       </c>
       <c r="D2">
-        <v>1.057568763589349</v>
+        <v>1.046595944301492</v>
       </c>
       <c r="E2">
-        <v>1.050415151866332</v>
+        <v>1.029787511382454</v>
       </c>
       <c r="F2">
-        <v>1.063400875303862</v>
+        <v>1.043890222866933</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044027115974436</v>
+        <v>1.052949008158603</v>
       </c>
       <c r="J2">
-        <v>1.046322789755185</v>
+        <v>1.0357024342285</v>
       </c>
       <c r="K2">
-        <v>1.060303375646331</v>
+        <v>1.057442159924717</v>
       </c>
       <c r="L2">
-        <v>1.053169492995887</v>
+        <v>1.040846889160117</v>
       </c>
       <c r="M2">
-        <v>1.066119615497034</v>
+        <v>1.054770174131511</v>
       </c>
       <c r="N2">
-        <v>1.047808688131539</v>
+        <v>1.037173250481835</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042126483843132</v>
+        <v>1.01805655485163</v>
       </c>
       <c r="D3">
-        <v>1.058236428656855</v>
+        <v>1.049624800485893</v>
       </c>
       <c r="E3">
-        <v>1.051188941203702</v>
+        <v>1.033162826432755</v>
       </c>
       <c r="F3">
-        <v>1.064223730400519</v>
+        <v>1.047482137100513</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044226590187372</v>
+        <v>1.054101420054935</v>
       </c>
       <c r="J3">
-        <v>1.046855021992533</v>
+        <v>1.038066797103919</v>
       </c>
       <c r="K3">
-        <v>1.060785274120953</v>
+        <v>1.059659781694368</v>
       </c>
       <c r="L3">
-        <v>1.053755823764507</v>
+        <v>1.043388262766358</v>
       </c>
       <c r="M3">
-        <v>1.06675745439619</v>
+        <v>1.057541489532025</v>
       </c>
       <c r="N3">
-        <v>1.048341676199712</v>
+        <v>1.039540971023732</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042700481853017</v>
+        <v>1.020677383933141</v>
       </c>
       <c r="D4">
-        <v>1.058668931598862</v>
+        <v>1.05155146827445</v>
       </c>
       <c r="E4">
-        <v>1.051690622553879</v>
+        <v>1.035312530745777</v>
       </c>
       <c r="F4">
-        <v>1.064757172358421</v>
+        <v>1.049769403119847</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044354784745038</v>
+        <v>1.054825337797673</v>
       </c>
       <c r="J4">
-        <v>1.047199474458479</v>
+        <v>1.039566552208268</v>
       </c>
       <c r="K4">
-        <v>1.061096888984373</v>
+        <v>1.061065113213896</v>
       </c>
       <c r="L4">
-        <v>1.054135544309236</v>
+        <v>1.045002656290303</v>
       </c>
       <c r="M4">
-        <v>1.067170524239911</v>
+        <v>1.059302088319968</v>
       </c>
       <c r="N4">
-        <v>1.048686617827669</v>
+        <v>1.041042855952354</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042941960850108</v>
+        <v>1.021767833776213</v>
       </c>
       <c r="D5">
-        <v>1.058850868653857</v>
+        <v>1.052353698820928</v>
       </c>
       <c r="E5">
-        <v>1.05190176412414</v>
+        <v>1.03620829084452</v>
       </c>
       <c r="F5">
-        <v>1.064981668758725</v>
+        <v>1.05072238709264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044408466677974</v>
+        <v>1.055124561793578</v>
       </c>
       <c r="J5">
-        <v>1.04734429603457</v>
+        <v>1.040190027899619</v>
       </c>
       <c r="K5">
-        <v>1.061227841230358</v>
+        <v>1.061648991176272</v>
       </c>
       <c r="L5">
-        <v>1.054295255314703</v>
+        <v>1.045674352676414</v>
       </c>
       <c r="M5">
-        <v>1.067344259906569</v>
+        <v>1.060034642654684</v>
       </c>
       <c r="N5">
-        <v>1.048831645067009</v>
+        <v>1.0416672170507</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042982516175691</v>
+        <v>1.021950270401218</v>
       </c>
       <c r="D6">
-        <v>1.058881423247704</v>
+        <v>1.052487948857943</v>
       </c>
       <c r="E6">
-        <v>1.051937229435925</v>
+        <v>1.036358232232872</v>
       </c>
       <c r="F6">
-        <v>1.06501937655749</v>
+        <v>1.050881901408524</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044417467713187</v>
+        <v>1.05517450595209</v>
       </c>
       <c r="J6">
-        <v>1.047368612985517</v>
+        <v>1.040294306006458</v>
       </c>
       <c r="K6">
-        <v>1.061249825678155</v>
+        <v>1.061746625594467</v>
       </c>
       <c r="L6">
-        <v>1.054322075940018</v>
+        <v>1.045786728892935</v>
       </c>
       <c r="M6">
-        <v>1.067373435599221</v>
+        <v>1.060157201936266</v>
       </c>
       <c r="N6">
-        <v>1.048855996550816</v>
+        <v>1.041771643244412</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042703707840147</v>
+        <v>1.020691998673299</v>
       </c>
       <c r="D7">
-        <v>1.05867136220973</v>
+        <v>1.051562217862356</v>
       </c>
       <c r="E7">
-        <v>1.051693442917775</v>
+        <v>1.035324530952991</v>
       </c>
       <c r="F7">
-        <v>1.064760171159903</v>
+        <v>1.049782170322901</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04435550287587</v>
+        <v>1.054829355995421</v>
       </c>
       <c r="J7">
-        <v>1.047201409518944</v>
+        <v>1.039574910456538</v>
       </c>
       <c r="K7">
-        <v>1.061098638975445</v>
+        <v>1.061072942006919</v>
       </c>
       <c r="L7">
-        <v>1.054137678076712</v>
+        <v>1.045011658757391</v>
       </c>
       <c r="M7">
-        <v>1.067172845387704</v>
+        <v>1.059311906342961</v>
       </c>
       <c r="N7">
-        <v>1.048688555636142</v>
+        <v>1.041051226070295</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041539783281158</v>
+        <v>1.01533532396929</v>
       </c>
       <c r="D8">
-        <v>1.057794303830457</v>
+        <v>1.047626564073088</v>
       </c>
       <c r="E8">
-        <v>1.050676451975146</v>
+        <v>1.030935479927864</v>
       </c>
       <c r="F8">
-        <v>1.063678754886449</v>
+        <v>1.045111937224561</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044094710703632</v>
+        <v>1.053343040817263</v>
       </c>
       <c r="J8">
-        <v>1.046502646425089</v>
+        <v>1.03650784412453</v>
       </c>
       <c r="K8">
-        <v>1.060466277233907</v>
+        <v>1.058197851158455</v>
       </c>
       <c r="L8">
-        <v>1.053367578022792</v>
+        <v>1.041712101376699</v>
       </c>
       <c r="M8">
-        <v>1.066335103660149</v>
+        <v>1.055713638013038</v>
       </c>
       <c r="N8">
-        <v>1.047988800218543</v>
+        <v>1.037979804152298</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039494359077495</v>
+        <v>1.005503263427425</v>
       </c>
       <c r="D9">
-        <v>1.056252565455346</v>
+        <v>1.040427319206293</v>
       </c>
       <c r="E9">
-        <v>1.048892028742407</v>
+        <v>1.022926663410241</v>
       </c>
       <c r="F9">
-        <v>1.061780902847433</v>
+        <v>1.03658715437231</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043628464538049</v>
+        <v>1.050552476432904</v>
       </c>
       <c r="J9">
-        <v>1.045271870662448</v>
+        <v>1.030863172859421</v>
       </c>
       <c r="K9">
-        <v>1.05935046193892</v>
+        <v>1.052896857758782</v>
       </c>
       <c r="L9">
-        <v>1.052013116743916</v>
+        <v>1.03565840901841</v>
       </c>
       <c r="M9">
-        <v>1.06486161162049</v>
+        <v>1.049113265388743</v>
       </c>
       <c r="N9">
-        <v>1.046756276613149</v>
+        <v>1.03232711680654</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038134569439085</v>
+        <v>0.9986580586887774</v>
       </c>
       <c r="D10">
-        <v>1.055227372248977</v>
+        <v>1.03543583450598</v>
       </c>
       <c r="E10">
-        <v>1.047707659118729</v>
+        <v>1.017385577381303</v>
       </c>
       <c r="F10">
-        <v>1.060520988123289</v>
+        <v>1.030687396754391</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043313174156651</v>
+        <v>1.048569784173967</v>
       </c>
       <c r="J10">
-        <v>1.044451785968354</v>
+        <v>1.026925020192595</v>
       </c>
       <c r="K10">
-        <v>1.058605651542126</v>
+        <v>1.049193460963528</v>
       </c>
       <c r="L10">
-        <v>1.051111942582984</v>
+        <v>1.031447868046708</v>
       </c>
       <c r="M10">
-        <v>1.063881204552099</v>
+        <v>1.044523837745091</v>
       </c>
       <c r="N10">
-        <v>1.045935027304724</v>
+        <v>1.028383371511214</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037546691660506</v>
+        <v>0.9956188048192041</v>
       </c>
       <c r="D11">
-        <v>1.054784100050002</v>
+        <v>1.033225504397882</v>
       </c>
       <c r="E11">
-        <v>1.047196080621856</v>
+        <v>1.014934260280676</v>
       </c>
       <c r="F11">
-        <v>1.059976717246731</v>
+        <v>1.028077070319894</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043175601260808</v>
+        <v>1.0476805668816</v>
       </c>
       <c r="J11">
-        <v>1.04409679826599</v>
+        <v>1.02517498932778</v>
       </c>
       <c r="K11">
-        <v>1.058282936687332</v>
+        <v>1.047546906984016</v>
       </c>
       <c r="L11">
-        <v>1.050722168718</v>
+        <v>1.029579928841833</v>
       </c>
       <c r="M11">
-        <v>1.063457153127976</v>
+        <v>1.042488232038184</v>
       </c>
       <c r="N11">
-        <v>1.045579535479104</v>
+        <v>1.02663085540184</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03732846739318</v>
+        <v>0.9944780127296137</v>
       </c>
       <c r="D12">
-        <v>1.054619547552739</v>
+        <v>1.032396819547748</v>
       </c>
       <c r="E12">
-        <v>1.047006248909298</v>
+        <v>1.014015550316462</v>
       </c>
       <c r="F12">
-        <v>1.059774745160128</v>
+        <v>1.027098721717921</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043124343516253</v>
+        <v>1.047345507044111</v>
       </c>
       <c r="J12">
-        <v>1.043964958449153</v>
+        <v>1.02451792562796</v>
       </c>
       <c r="K12">
-        <v>1.058163036338691</v>
+        <v>1.046928598488015</v>
       </c>
       <c r="L12">
-        <v>1.050577456942695</v>
+        <v>1.02887907198726</v>
       </c>
       <c r="M12">
-        <v>1.063299713972572</v>
+        <v>1.04172453843988</v>
       </c>
       <c r="N12">
-        <v>1.045447508434606</v>
+        <v>1.0259728585962</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037375270893108</v>
+        <v>0.9947232636266359</v>
       </c>
       <c r="D13">
-        <v>1.054654840132675</v>
+        <v>1.032574927517576</v>
       </c>
       <c r="E13">
-        <v>1.047046959769335</v>
+        <v>1.014212993150291</v>
       </c>
       <c r="F13">
-        <v>1.059818060031946</v>
+        <v>1.027308983603597</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043135345571569</v>
+        <v>1.047417596695419</v>
       </c>
       <c r="J13">
-        <v>1.043993237683911</v>
+        <v>1.024659190835907</v>
       </c>
       <c r="K13">
-        <v>1.058188756690851</v>
+        <v>1.047061535367463</v>
       </c>
       <c r="L13">
-        <v>1.050608495028313</v>
+        <v>1.029029730865058</v>
       </c>
       <c r="M13">
-        <v>1.063333481902541</v>
+        <v>1.041888701527742</v>
       </c>
       <c r="N13">
-        <v>1.04547582782912</v>
+        <v>1.026114324416946</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037528650315779</v>
+        <v>0.9955247523433828</v>
       </c>
       <c r="D14">
-        <v>1.054770496068216</v>
+        <v>1.033157163369202</v>
       </c>
       <c r="E14">
-        <v>1.04718038515994</v>
+        <v>1.014858488551099</v>
       </c>
       <c r="F14">
-        <v>1.059960018194974</v>
+        <v>1.027996380696335</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043171367479181</v>
+        <v>1.047652968850208</v>
       </c>
       <c r="J14">
-        <v>1.044085899962647</v>
+        <v>1.025120821305281</v>
       </c>
       <c r="K14">
-        <v>1.058273026284402</v>
+        <v>1.047495935694071</v>
       </c>
       <c r="L14">
-        <v>1.05071020541046</v>
+        <v>1.029522140810382</v>
       </c>
       <c r="M14">
-        <v>1.063444137671495</v>
+        <v>1.042425261379577</v>
       </c>
       <c r="N14">
-        <v>1.045568621698921</v>
+        <v>1.026576610454536</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037623170998159</v>
+        <v>0.9960169842684272</v>
       </c>
       <c r="D15">
-        <v>1.054841768620663</v>
+        <v>1.033514872183057</v>
       </c>
       <c r="E15">
-        <v>1.047262618352564</v>
+        <v>1.015255103972398</v>
       </c>
       <c r="F15">
-        <v>1.060047509116625</v>
+        <v>1.028418736283292</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043193540976752</v>
+        <v>1.047797353276576</v>
       </c>
       <c r="J15">
-        <v>1.044142994728892</v>
+        <v>1.025404307131336</v>
       </c>
       <c r="K15">
-        <v>1.058324943671539</v>
+        <v>1.047762687837788</v>
       </c>
       <c r="L15">
-        <v>1.050772881532765</v>
+        <v>1.029824591249688</v>
       </c>
       <c r="M15">
-        <v>1.063512325988124</v>
+        <v>1.042754839605907</v>
       </c>
       <c r="N15">
-        <v>1.045625797546282</v>
+        <v>1.026860498862981</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038173604462873</v>
+        <v>0.9988581305964652</v>
       </c>
       <c r="D16">
-        <v>1.055256804478908</v>
+        <v>1.0355814686865</v>
       </c>
       <c r="E16">
-        <v>1.047741637629043</v>
+        <v>1.017547136693707</v>
       </c>
       <c r="F16">
-        <v>1.060557136735789</v>
+        <v>1.030859429366171</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043322282353842</v>
+        <v>1.048628138974984</v>
       </c>
       <c r="J16">
-        <v>1.044475347848494</v>
+        <v>1.02704019555819</v>
       </c>
       <c r="K16">
-        <v>1.058627064823566</v>
+        <v>1.049301811143961</v>
       </c>
       <c r="L16">
-        <v>1.051137819992064</v>
+        <v>1.031570869184351</v>
       </c>
       <c r="M16">
-        <v>1.063909357516353</v>
+        <v>1.044657889016002</v>
       </c>
       <c r="N16">
-        <v>1.045958622645436</v>
+        <v>1.028498710439039</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03851912421462</v>
+        <v>1.000619769400956</v>
       </c>
       <c r="D17">
-        <v>1.055517319056885</v>
+        <v>1.036864461821345</v>
       </c>
       <c r="E17">
-        <v>1.048042452749323</v>
+        <v>1.018970693956065</v>
       </c>
       <c r="F17">
-        <v>1.060877156896246</v>
+        <v>1.032375232830492</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043402757787668</v>
+        <v>1.049140944958042</v>
       </c>
       <c r="J17">
-        <v>1.044683855675909</v>
+        <v>1.028054151601324</v>
       </c>
       <c r="K17">
-        <v>1.058816523014474</v>
+        <v>1.050255588586545</v>
       </c>
       <c r="L17">
-        <v>1.05136685517648</v>
+        <v>1.032654077972175</v>
       </c>
       <c r="M17">
-        <v>1.064158532227359</v>
+        <v>1.045838459760344</v>
       </c>
       <c r="N17">
-        <v>1.046167426577883</v>
+        <v>1.029514106416057</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038720748717707</v>
+        <v>1.001640085062506</v>
       </c>
       <c r="D18">
-        <v>1.055669334737402</v>
+        <v>1.037608105607954</v>
       </c>
       <c r="E18">
-        <v>1.048218034701532</v>
+        <v>1.0197960406549</v>
       </c>
       <c r="F18">
-        <v>1.061063942660521</v>
+        <v>1.033254029319936</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043449596380978</v>
+        <v>1.049437104848414</v>
       </c>
       <c r="J18">
-        <v>1.044805485717127</v>
+        <v>1.028641274826373</v>
       </c>
       <c r="K18">
-        <v>1.05892701070029</v>
+        <v>1.050807783636796</v>
       </c>
       <c r="L18">
-        <v>1.051500489930991</v>
+        <v>1.033281598931393</v>
       </c>
       <c r="M18">
-        <v>1.064303916986415</v>
+        <v>1.046522423495038</v>
       </c>
       <c r="N18">
-        <v>1.046289229347709</v>
+        <v>1.030102063423429</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038789512459157</v>
+        <v>1.001986778833977</v>
       </c>
       <c r="D19">
-        <v>1.055721178603491</v>
+        <v>1.037860880116397</v>
       </c>
       <c r="E19">
-        <v>1.048277924177024</v>
+        <v>1.02007662703797</v>
       </c>
       <c r="F19">
-        <v>1.061127652653287</v>
+        <v>1.033552780911701</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043465549915712</v>
+        <v>1.049537591642273</v>
       </c>
       <c r="J19">
-        <v>1.044846960238212</v>
+        <v>1.028840747984767</v>
       </c>
       <c r="K19">
-        <v>1.058964680698139</v>
+        <v>1.050995375219273</v>
       </c>
       <c r="L19">
-        <v>1.05154606307871</v>
+        <v>1.033494847389613</v>
       </c>
       <c r="M19">
-        <v>1.064353497077847</v>
+        <v>1.046754859136292</v>
       </c>
       <c r="N19">
-        <v>1.046330762767371</v>
+        <v>1.030301819856588</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038482044032202</v>
+        <v>1.000431512907469</v>
       </c>
       <c r="D20">
-        <v>1.055489361888267</v>
+        <v>1.036727297587274</v>
       </c>
       <c r="E20">
-        <v>1.048010165544929</v>
+        <v>1.018818478501759</v>
       </c>
       <c r="F20">
-        <v>1.060842808981665</v>
+        <v>1.032213157176429</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043394134014791</v>
+        <v>1.049086232057935</v>
       </c>
       <c r="J20">
-        <v>1.044661483617461</v>
+        <v>1.027945810584037</v>
       </c>
       <c r="K20">
-        <v>1.058796198009438</v>
+        <v>1.050153685956606</v>
       </c>
       <c r="L20">
-        <v>1.051342277472264</v>
+        <v>1.032538306417685</v>
       </c>
       <c r="M20">
-        <v>1.064131793434973</v>
+        <v>1.045712278175891</v>
       </c>
       <c r="N20">
-        <v>1.046145022748545</v>
+        <v>1.029405611542099</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037483480029967</v>
+        <v>0.9952890665757931</v>
       </c>
       <c r="D21">
-        <v>1.0547364355426</v>
+        <v>1.032985923729975</v>
       </c>
       <c r="E21">
-        <v>1.047141089412042</v>
+        <v>1.014668635183553</v>
       </c>
       <c r="F21">
-        <v>1.059918209673347</v>
+        <v>1.027794204370565</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043160764254671</v>
+        <v>1.047583790426336</v>
       </c>
       <c r="J21">
-        <v>1.044058612712638</v>
+        <v>1.024985079009854</v>
       </c>
       <c r="K21">
-        <v>1.058248211797431</v>
+        <v>1.047368202805902</v>
       </c>
       <c r="L21">
-        <v>1.050680252360736</v>
+        <v>1.02937733465506</v>
       </c>
       <c r="M21">
-        <v>1.063411550293315</v>
+        <v>1.042267469712382</v>
       </c>
       <c r="N21">
-        <v>1.045541295697886</v>
+        <v>1.02644067538948</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036856452292072</v>
+        <v>0.9919867735796513</v>
       </c>
       <c r="D22">
-        <v>1.054263611891123</v>
+        <v>1.030589031422501</v>
       </c>
       <c r="E22">
-        <v>1.046595774564875</v>
+        <v>1.012011927914844</v>
       </c>
       <c r="F22">
-        <v>1.059338002817485</v>
+        <v>1.024964957476802</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043013127163073</v>
+        <v>1.046611494809089</v>
       </c>
       <c r="J22">
-        <v>1.043679671042236</v>
+        <v>1.023082749249954</v>
       </c>
       <c r="K22">
-        <v>1.05790350008564</v>
+        <v>1.045577930645967</v>
       </c>
       <c r="L22">
-        <v>1.050264402668764</v>
+        <v>1.027349123703867</v>
       </c>
       <c r="M22">
-        <v>1.062959124669056</v>
+        <v>1.040057562785942</v>
       </c>
       <c r="N22">
-        <v>1.045161815886848</v>
+        <v>1.02453564410312</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037188774372715</v>
+        <v>0.9937441264800981</v>
       </c>
       <c r="D23">
-        <v>1.054514209895385</v>
+        <v>1.031863999795246</v>
       </c>
       <c r="E23">
-        <v>1.046884750670041</v>
+        <v>1.013424934077937</v>
       </c>
       <c r="F23">
-        <v>1.059645474115204</v>
+        <v>1.02646975340499</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043091478231382</v>
+        <v>1.047129601553752</v>
       </c>
       <c r="J23">
-        <v>1.043880544617215</v>
+        <v>1.024095181190444</v>
       </c>
       <c r="K23">
-        <v>1.058086254022992</v>
+        <v>1.046530765414121</v>
       </c>
       <c r="L23">
-        <v>1.050484814851065</v>
+        <v>1.028428286715542</v>
       </c>
       <c r="M23">
-        <v>1.063198923718437</v>
+        <v>1.041233358641096</v>
       </c>
       <c r="N23">
-        <v>1.045362974725344</v>
+        <v>1.025549513813093</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038498798696706</v>
+        <v>1.0005166001791</v>
       </c>
       <c r="D24">
-        <v>1.055501994338241</v>
+        <v>1.036789290716494</v>
       </c>
       <c r="E24">
-        <v>1.04802475436737</v>
+        <v>1.018887273508231</v>
       </c>
       <c r="F24">
-        <v>1.060858328944681</v>
+        <v>1.0322864086811</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043398031039838</v>
+        <v>1.04911096357137</v>
       </c>
       <c r="J24">
-        <v>1.044671592553984</v>
+        <v>1.027994778493855</v>
       </c>
       <c r="K24">
-        <v>1.05880538206653</v>
+        <v>1.050199744105089</v>
       </c>
       <c r="L24">
-        <v>1.05135338294801</v>
+        <v>1.032590631855654</v>
       </c>
       <c r="M24">
-        <v>1.064143875404323</v>
+        <v>1.045769308528935</v>
       </c>
       <c r="N24">
-        <v>1.046155146040918</v>
+        <v>1.029454648991965</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040022482317837</v>
+        <v>1.008094266325394</v>
       </c>
       <c r="D25">
-        <v>1.056650685906393</v>
+        <v>1.042321232775786</v>
       </c>
       <c r="E25">
-        <v>1.049352428058283</v>
+        <v>1.025031402265964</v>
       </c>
       <c r="F25">
-        <v>1.062270613825486</v>
+        <v>1.038827802956363</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043749789547207</v>
+        <v>1.051294924465469</v>
       </c>
       <c r="J25">
-        <v>1.045589984849382</v>
+        <v>1.032352263276171</v>
       </c>
       <c r="K25">
-        <v>1.059639097616246</v>
+        <v>1.054296261229401</v>
       </c>
       <c r="L25">
-        <v>1.05236296628172</v>
+        <v>1.037253179011092</v>
       </c>
       <c r="M25">
-        <v>1.065242213001379</v>
+        <v>1.050851850457585</v>
       </c>
       <c r="N25">
-        <v>1.047074842558716</v>
+        <v>1.033818321902483</v>
       </c>
     </row>
   </sheetData>
